--- a/biology/Botanique/Tricholomatoïde/Tricholomatoïde.xlsx
+++ b/biology/Botanique/Tricholomatoïde/Tricholomatoïde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tricholomato%C3%AFde</t>
+          <t>Tricholomatoïde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le clade Tricholomatoïde est une division phylogénétique des Agaricales proposée en 2006. C'est le cinquième des six clades des Agaricales. Quoique fort proche[De quoi ?], cette division va donner une vision plus claire des Agaricales et des Agaricaceae et classer de nombreux Incertae sedis,  ces familles[Lesquelles ?] que la classification ne pouvait classer par son approche morphologique seule.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tricholomato%C3%AFde</t>
+          <t>Tricholomatoïde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Situation du clade</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Agaricomycètes
@@ -532,9 +546,9 @@
 Lyophyllaceae
 Entolomataceae
 Clade VI Agaricoïde
-La recherche moléculaire phylogénétique va démontrer que le clade euagarics équivaut grosso modo aux Agaricales  de Singer stricto sensu [1]. Une étude complémentaire va préciser ces hypothèses[2].
+La recherche moléculaire phylogénétique va démontrer que le clade euagarics équivaut grosso modo aux Agaricales  de Singer stricto sensu . Une étude complémentaire va préciser ces hypothèses.
 En 2006, dans une étude à grande échelle réalisée on va utiliser des séquences d'acides nucléiques représentant six gènes des régions de 238 espèces dans 146 genres pour explorer le regroupement phylogénétique au sein des Agaricales, l'analyse va montre que la plupart des espèces testées peuvent être regroupées en six clades qui ont été nommés Agaricoïde, Tricholomatoïde, Marasmioïde, Pluteoïde, Hygrophoroïde et le clade Plicaturopsidoïde. 
-L'étude a reconnu 30 familles, quatre genres incertae sedis qui n'étaient pas encore intégrés et propose deux clades à titre informels[3].
+L'étude a reconnu 30 familles, quatre genres incertae sedis qui n'étaient pas encore intégrés et propose deux clades à titre informels.
 </t>
         </is>
       </c>
@@ -545,7 +559,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tricholomato%C3%AFde</t>
+          <t>Tricholomatoïde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -563,7 +577,9 @@
           <t>Clade des tricholomatoïdes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Agaricomycètes
